--- a/bio_diversity/static/test/parser_test_files/test-generic-indv.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-generic-indv.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="3" r:id="rId1"/>
-    <sheet name="Group" sheetId="4" r:id="rId2"/>
+    <sheet name="Untagged" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -464,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:I33"/>
     </sheetView>
   </sheetViews>
@@ -547,11 +547,11 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">RANDBETWEEN(250,350)/10</f>
-        <v>29.2</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="I4" s="3">
         <f ca="1">RANDBETWEEN(300,410)</f>
-        <v>401</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -870,7 +870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/bio_diversity/static/test/parser_test_files/test-generic-indv.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-generic-indv.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>PIT</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>test comment</t>
   </si>
 </sst>
 </file>
@@ -464,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,11 +550,14 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">RANDBETWEEN(250,350)/10</f>
-        <v>32.700000000000003</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="I4" s="3">
         <f ca="1">RANDBETWEEN(300,410)</f>
-        <v>346</v>
+        <v>356</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -870,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bio_diversity/static/test/parser_test_files/test-generic-indv.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-generic-indv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>PIT</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>test comment</t>
+  </si>
+  <si>
+    <t>Lifestage</t>
+  </si>
+  <si>
+    <t>Fry</t>
   </si>
 </sst>
 </file>
@@ -465,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O71"/>
+  <dimension ref="A3:P71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,12 +486,13 @@
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -514,25 +521,28 @@
         <v>6</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -550,321 +560,391 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">RANDBETWEEN(250,350)/10</f>
-        <v>34.700000000000003</v>
+        <v>33.4</v>
       </c>
       <c r="I4" s="3">
         <f ca="1">RANDBETWEEN(300,410)</f>
-        <v>356</v>
-      </c>
-      <c r="O4" t="s">
+        <v>338</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C63" s="2"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C64" s="2"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C70" s="2"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bio_diversity/static/test/parser_test_files/test-generic-indv.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-generic-indv.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\test\parser_test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5D6567-87C2-4703-A78C-5DE6B006CE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="3" r:id="rId1"/>
     <sheet name="Untagged" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>PIT</t>
   </si>
@@ -97,16 +107,85 @@
   </si>
   <si>
     <t>Fry</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Vaccinated</t>
+  </si>
+  <si>
+    <t>Mark Applied</t>
+  </si>
+  <si>
+    <t>ADDITIONAL COLUMNS</t>
+  </si>
+  <si>
+    <t>eg. 1999</t>
+  </si>
+  <si>
+    <t>eg, Apr, Sep</t>
+  </si>
+  <si>
+    <t>eg. 1</t>
+  </si>
+  <si>
+    <t>Pit tag as in database</t>
+  </si>
+  <si>
+    <t>Fill in to record current container, or if movement occurred.  Leave blank if movement origin is unknown.</t>
+  </si>
+  <si>
+    <t>Fill in if a movement occurred, or if origin tank is unknown.</t>
+  </si>
+  <si>
+    <t>eg. M/F/I</t>
+  </si>
+  <si>
+    <t>Units can be set in header to (cm) or (mm), optional</t>
+  </si>
+  <si>
+    <t>Units can be set in header to (g) or (kg), optional</t>
+  </si>
+  <si>
+    <t>Vial Number, optional</t>
+  </si>
+  <si>
+    <t>Use full name Eg. Fry/Parr/Smolt. Optional</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Scale Envelope Number, optional</t>
+  </si>
+  <si>
+    <t>Release / Keep, optional</t>
+  </si>
+  <si>
+    <t>Entry must match to Animal Detail Subjective Code in database. Optional</t>
+  </si>
+  <si>
+    <t>Enter extra columns selected in application here. Optional</t>
+  </si>
+  <si>
+    <t>Keep</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +213,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -149,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -166,13 +251,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -182,11 +306,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -470,11 +609,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:P71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:RU71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,57 +631,600 @@
     <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="2" spans="1:489" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:489" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="11"/>
+      <c r="BF3" s="11"/>
+      <c r="BG3" s="11"/>
+      <c r="BH3" s="11"/>
+      <c r="BI3" s="11"/>
+      <c r="BJ3" s="11"/>
+      <c r="BK3" s="11"/>
+      <c r="BL3" s="11"/>
+      <c r="BM3" s="11"/>
+      <c r="BN3" s="11"/>
+      <c r="BO3" s="11"/>
+      <c r="BP3" s="11"/>
+      <c r="BQ3" s="11"/>
+      <c r="BR3" s="11"/>
+      <c r="BS3" s="11"/>
+      <c r="BT3" s="11"/>
+      <c r="BU3" s="11"/>
+      <c r="BV3" s="11"/>
+      <c r="BW3" s="11"/>
+      <c r="BX3" s="11"/>
+      <c r="BY3" s="11"/>
+      <c r="BZ3" s="11"/>
+      <c r="CA3" s="11"/>
+      <c r="CB3" s="11"/>
+      <c r="CC3" s="11"/>
+      <c r="CD3" s="11"/>
+      <c r="CE3" s="11"/>
+      <c r="CF3" s="11"/>
+      <c r="CG3" s="11"/>
+      <c r="CH3" s="11"/>
+      <c r="CI3" s="11"/>
+      <c r="CJ3" s="11"/>
+      <c r="CK3" s="11"/>
+      <c r="CL3" s="11"/>
+      <c r="CM3" s="11"/>
+      <c r="CN3" s="11"/>
+      <c r="CO3" s="11"/>
+      <c r="CP3" s="11"/>
+      <c r="CQ3" s="11"/>
+      <c r="CR3" s="11"/>
+      <c r="CS3" s="11"/>
+      <c r="CT3" s="11"/>
+      <c r="CU3" s="11"/>
+      <c r="CV3" s="11"/>
+      <c r="CW3" s="11"/>
+      <c r="CX3" s="11"/>
+      <c r="CY3" s="11"/>
+      <c r="CZ3" s="11"/>
+      <c r="DA3" s="11"/>
+      <c r="DB3" s="11"/>
+      <c r="DC3" s="11"/>
+      <c r="DD3" s="11"/>
+      <c r="DE3" s="11"/>
+      <c r="DF3" s="11"/>
+      <c r="DG3" s="11"/>
+      <c r="DH3" s="11"/>
+      <c r="DI3" s="11"/>
+      <c r="DJ3" s="11"/>
+      <c r="DK3" s="11"/>
+      <c r="DL3" s="11"/>
+      <c r="DM3" s="11"/>
+      <c r="DN3" s="11"/>
+      <c r="DO3" s="11"/>
+      <c r="DP3" s="11"/>
+      <c r="DQ3" s="11"/>
+      <c r="DR3" s="11"/>
+      <c r="DS3" s="11"/>
+      <c r="DT3" s="11"/>
+      <c r="DU3" s="11"/>
+      <c r="DV3" s="11"/>
+      <c r="DW3" s="11"/>
+      <c r="DX3" s="11"/>
+      <c r="DY3" s="11"/>
+      <c r="DZ3" s="11"/>
+      <c r="EA3" s="11"/>
+      <c r="EB3" s="11"/>
+      <c r="EC3" s="11"/>
+      <c r="ED3" s="11"/>
+      <c r="EE3" s="11"/>
+      <c r="EF3" s="11"/>
+      <c r="EG3" s="11"/>
+      <c r="EH3" s="11"/>
+      <c r="EI3" s="11"/>
+      <c r="EJ3" s="11"/>
+      <c r="EK3" s="11"/>
+      <c r="EL3" s="11"/>
+      <c r="EM3" s="11"/>
+      <c r="EN3" s="11"/>
+      <c r="EO3" s="11"/>
+      <c r="EP3" s="11"/>
+      <c r="EQ3" s="11"/>
+      <c r="ER3" s="11"/>
+      <c r="ES3" s="11"/>
+      <c r="ET3" s="11"/>
+      <c r="EU3" s="11"/>
+      <c r="EV3" s="11"/>
+      <c r="EW3" s="11"/>
+      <c r="EX3" s="11"/>
+      <c r="EY3" s="11"/>
+      <c r="EZ3" s="11"/>
+      <c r="FA3" s="11"/>
+      <c r="FB3" s="11"/>
+      <c r="FC3" s="11"/>
+      <c r="FD3" s="11"/>
+      <c r="FE3" s="11"/>
+      <c r="FF3" s="11"/>
+      <c r="FG3" s="11"/>
+      <c r="FH3" s="11"/>
+      <c r="FI3" s="11"/>
+      <c r="FJ3" s="11"/>
+      <c r="FK3" s="11"/>
+      <c r="FL3" s="11"/>
+      <c r="FM3" s="11"/>
+      <c r="FN3" s="11"/>
+      <c r="FO3" s="11"/>
+      <c r="FP3" s="11"/>
+      <c r="FQ3" s="11"/>
+      <c r="FR3" s="11"/>
+      <c r="FS3" s="11"/>
+      <c r="FT3" s="11"/>
+      <c r="FU3" s="11"/>
+      <c r="FV3" s="11"/>
+      <c r="FW3" s="11"/>
+      <c r="FX3" s="11"/>
+      <c r="FY3" s="11"/>
+      <c r="FZ3" s="11"/>
+      <c r="GA3" s="11"/>
+      <c r="GB3" s="11"/>
+      <c r="GC3" s="11"/>
+      <c r="GD3" s="11"/>
+      <c r="GE3" s="11"/>
+      <c r="GF3" s="11"/>
+      <c r="GG3" s="11"/>
+      <c r="GH3" s="11"/>
+      <c r="GI3" s="11"/>
+      <c r="GJ3" s="11"/>
+      <c r="GK3" s="11"/>
+      <c r="GL3" s="11"/>
+      <c r="GM3" s="11"/>
+      <c r="GN3" s="11"/>
+      <c r="GO3" s="11"/>
+      <c r="GP3" s="11"/>
+      <c r="GQ3" s="11"/>
+      <c r="GR3" s="11"/>
+      <c r="GS3" s="11"/>
+      <c r="GT3" s="11"/>
+      <c r="GU3" s="11"/>
+      <c r="GV3" s="11"/>
+      <c r="GW3" s="11"/>
+      <c r="GX3" s="11"/>
+      <c r="GY3" s="11"/>
+      <c r="GZ3" s="11"/>
+      <c r="HA3" s="11"/>
+      <c r="HB3" s="11"/>
+      <c r="HC3" s="11"/>
+      <c r="HD3" s="11"/>
+      <c r="HE3" s="11"/>
+      <c r="HF3" s="11"/>
+      <c r="HG3" s="11"/>
+      <c r="HH3" s="11"/>
+      <c r="HI3" s="11"/>
+      <c r="HJ3" s="11"/>
+      <c r="HK3" s="11"/>
+      <c r="HL3" s="11"/>
+      <c r="HM3" s="11"/>
+      <c r="HN3" s="11"/>
+      <c r="HO3" s="11"/>
+      <c r="HP3" s="11"/>
+      <c r="HQ3" s="11"/>
+      <c r="HR3" s="11"/>
+      <c r="HS3" s="11"/>
+      <c r="HT3" s="11"/>
+      <c r="HU3" s="11"/>
+      <c r="HV3" s="11"/>
+      <c r="HW3" s="11"/>
+      <c r="HX3" s="11"/>
+      <c r="HY3" s="11"/>
+      <c r="HZ3" s="11"/>
+      <c r="IA3" s="11"/>
+      <c r="IB3" s="11"/>
+      <c r="IC3" s="11"/>
+      <c r="ID3" s="11"/>
+      <c r="IE3" s="11"/>
+      <c r="IF3" s="11"/>
+      <c r="IG3" s="11"/>
+      <c r="IH3" s="11"/>
+      <c r="II3" s="11"/>
+      <c r="IJ3" s="11"/>
+      <c r="IK3" s="11"/>
+      <c r="IL3" s="11"/>
+      <c r="IM3" s="11"/>
+      <c r="IN3" s="11"/>
+      <c r="IO3" s="11"/>
+      <c r="IP3" s="11"/>
+      <c r="IQ3" s="11"/>
+      <c r="IR3" s="11"/>
+      <c r="IS3" s="11"/>
+      <c r="IT3" s="11"/>
+      <c r="IU3" s="11"/>
+      <c r="IV3" s="11"/>
+      <c r="IW3" s="11"/>
+      <c r="IX3" s="11"/>
+      <c r="IY3" s="11"/>
+      <c r="IZ3" s="11"/>
+      <c r="JA3" s="11"/>
+      <c r="JB3" s="11"/>
+      <c r="JC3" s="11"/>
+      <c r="JD3" s="11"/>
+      <c r="JE3" s="11"/>
+      <c r="JF3" s="11"/>
+      <c r="JG3" s="11"/>
+      <c r="JH3" s="11"/>
+      <c r="JI3" s="11"/>
+      <c r="JJ3" s="11"/>
+      <c r="JK3" s="11"/>
+      <c r="JL3" s="11"/>
+      <c r="JM3" s="11"/>
+      <c r="JN3" s="11"/>
+      <c r="JO3" s="11"/>
+      <c r="JP3" s="11"/>
+      <c r="JQ3" s="11"/>
+      <c r="JR3" s="11"/>
+      <c r="JS3" s="11"/>
+      <c r="JT3" s="11"/>
+      <c r="JU3" s="11"/>
+      <c r="JV3" s="11"/>
+      <c r="JW3" s="11"/>
+      <c r="JX3" s="11"/>
+      <c r="JY3" s="11"/>
+      <c r="JZ3" s="11"/>
+      <c r="KA3" s="11"/>
+      <c r="KB3" s="11"/>
+      <c r="KC3" s="11"/>
+      <c r="KD3" s="11"/>
+      <c r="KE3" s="11"/>
+      <c r="KF3" s="11"/>
+      <c r="KG3" s="11"/>
+      <c r="KH3" s="11"/>
+      <c r="KI3" s="11"/>
+      <c r="KJ3" s="11"/>
+      <c r="KK3" s="11"/>
+      <c r="KL3" s="11"/>
+      <c r="KM3" s="11"/>
+      <c r="KN3" s="11"/>
+      <c r="KO3" s="11"/>
+      <c r="KP3" s="11"/>
+      <c r="KQ3" s="11"/>
+      <c r="KR3" s="11"/>
+      <c r="KS3" s="11"/>
+      <c r="KT3" s="11"/>
+      <c r="KU3" s="11"/>
+      <c r="KV3" s="11"/>
+      <c r="KW3" s="11"/>
+      <c r="KX3" s="11"/>
+      <c r="KY3" s="11"/>
+      <c r="KZ3" s="11"/>
+      <c r="LA3" s="11"/>
+      <c r="LB3" s="11"/>
+      <c r="LC3" s="11"/>
+      <c r="LD3" s="11"/>
+      <c r="LE3" s="11"/>
+      <c r="LF3" s="11"/>
+      <c r="LG3" s="11"/>
+      <c r="LH3" s="11"/>
+      <c r="LI3" s="11"/>
+      <c r="LJ3" s="11"/>
+      <c r="LK3" s="11"/>
+      <c r="LL3" s="11"/>
+      <c r="LM3" s="11"/>
+      <c r="LN3" s="11"/>
+      <c r="LO3" s="11"/>
+      <c r="LP3" s="11"/>
+      <c r="LQ3" s="11"/>
+      <c r="LR3" s="11"/>
+      <c r="LS3" s="11"/>
+      <c r="LT3" s="11"/>
+      <c r="LU3" s="11"/>
+      <c r="LV3" s="11"/>
+      <c r="LW3" s="11"/>
+      <c r="LX3" s="11"/>
+      <c r="LY3" s="11"/>
+      <c r="LZ3" s="11"/>
+      <c r="MA3" s="11"/>
+      <c r="MB3" s="11"/>
+      <c r="MC3" s="11"/>
+      <c r="MD3" s="11"/>
+      <c r="ME3" s="11"/>
+      <c r="MF3" s="11"/>
+      <c r="MG3" s="11"/>
+      <c r="MH3" s="11"/>
+      <c r="MI3" s="11"/>
+      <c r="MJ3" s="11"/>
+      <c r="MK3" s="11"/>
+      <c r="ML3" s="11"/>
+      <c r="MM3" s="11"/>
+      <c r="MN3" s="11"/>
+      <c r="MO3" s="11"/>
+      <c r="MP3" s="11"/>
+      <c r="MQ3" s="11"/>
+      <c r="MR3" s="11"/>
+      <c r="MS3" s="11"/>
+      <c r="MT3" s="11"/>
+      <c r="MU3" s="11"/>
+      <c r="MV3" s="11"/>
+      <c r="MW3" s="11"/>
+      <c r="MX3" s="11"/>
+      <c r="MY3" s="11"/>
+      <c r="MZ3" s="11"/>
+      <c r="NA3" s="11"/>
+      <c r="NB3" s="11"/>
+      <c r="NC3" s="11"/>
+      <c r="ND3" s="11"/>
+      <c r="NE3" s="11"/>
+      <c r="NF3" s="11"/>
+      <c r="NG3" s="11"/>
+      <c r="NH3" s="11"/>
+      <c r="NI3" s="11"/>
+      <c r="NJ3" s="11"/>
+      <c r="NK3" s="11"/>
+      <c r="NL3" s="11"/>
+      <c r="NM3" s="11"/>
+      <c r="NN3" s="11"/>
+      <c r="NO3" s="11"/>
+      <c r="NP3" s="11"/>
+      <c r="NQ3" s="11"/>
+      <c r="NR3" s="11"/>
+      <c r="NS3" s="11"/>
+      <c r="NT3" s="11"/>
+      <c r="NU3" s="11"/>
+      <c r="NV3" s="11"/>
+      <c r="NW3" s="11"/>
+      <c r="NX3" s="11"/>
+      <c r="NY3" s="11"/>
+      <c r="NZ3" s="11"/>
+      <c r="OA3" s="11"/>
+      <c r="OB3" s="11"/>
+      <c r="OC3" s="11"/>
+      <c r="OD3" s="11"/>
+      <c r="OE3" s="11"/>
+      <c r="OF3" s="11"/>
+      <c r="OG3" s="11"/>
+      <c r="OH3" s="11"/>
+      <c r="OI3" s="11"/>
+      <c r="OJ3" s="11"/>
+      <c r="OK3" s="11"/>
+      <c r="OL3" s="11"/>
+      <c r="OM3" s="11"/>
+      <c r="ON3" s="11"/>
+      <c r="OO3" s="11"/>
+      <c r="OP3" s="11"/>
+      <c r="OQ3" s="11"/>
+      <c r="OR3" s="11"/>
+      <c r="OS3" s="11"/>
+      <c r="OT3" s="11"/>
+      <c r="OU3" s="11"/>
+      <c r="OV3" s="11"/>
+      <c r="OW3" s="11"/>
+      <c r="OX3" s="11"/>
+      <c r="OY3" s="11"/>
+      <c r="OZ3" s="11"/>
+      <c r="PA3" s="11"/>
+      <c r="PB3" s="11"/>
+      <c r="PC3" s="11"/>
+      <c r="PD3" s="11"/>
+      <c r="PE3" s="11"/>
+      <c r="PF3" s="11"/>
+      <c r="PG3" s="11"/>
+      <c r="PH3" s="11"/>
+      <c r="PI3" s="11"/>
+      <c r="PJ3" s="11"/>
+      <c r="PK3" s="11"/>
+      <c r="PL3" s="11"/>
+      <c r="PM3" s="11"/>
+      <c r="PN3" s="11"/>
+      <c r="PO3" s="11"/>
+      <c r="PP3" s="11"/>
+      <c r="PQ3" s="11"/>
+      <c r="PR3" s="11"/>
+      <c r="PS3" s="11"/>
+      <c r="PT3" s="11"/>
+      <c r="PU3" s="11"/>
+      <c r="PV3" s="11"/>
+      <c r="PW3" s="11"/>
+      <c r="PX3" s="11"/>
+      <c r="PY3" s="11"/>
+      <c r="PZ3" s="11"/>
+      <c r="QA3" s="11"/>
+      <c r="QB3" s="11"/>
+      <c r="QC3" s="11"/>
+      <c r="QD3" s="11"/>
+      <c r="QE3" s="11"/>
+      <c r="QF3" s="11"/>
+      <c r="QG3" s="11"/>
+      <c r="QH3" s="11"/>
+      <c r="QI3" s="11"/>
+      <c r="QJ3" s="11"/>
+      <c r="QK3" s="11"/>
+      <c r="QL3" s="11"/>
+      <c r="QM3" s="11"/>
+      <c r="QN3" s="11"/>
+      <c r="QO3" s="11"/>
+      <c r="QP3" s="11"/>
+      <c r="QQ3" s="11"/>
+      <c r="QR3" s="11"/>
+      <c r="QS3" s="11"/>
+      <c r="QT3" s="11"/>
+      <c r="QU3" s="11"/>
+      <c r="QV3" s="11"/>
+      <c r="QW3" s="11"/>
+      <c r="QX3" s="11"/>
+      <c r="QY3" s="11"/>
+      <c r="QZ3" s="11"/>
+      <c r="RA3" s="11"/>
+      <c r="RB3" s="11"/>
+      <c r="RC3" s="11"/>
+      <c r="RD3" s="11"/>
+      <c r="RE3" s="11"/>
+      <c r="RF3" s="11"/>
+      <c r="RG3" s="11"/>
+      <c r="RH3" s="11"/>
+      <c r="RI3" s="11"/>
+      <c r="RJ3" s="11"/>
+      <c r="RK3" s="11"/>
+      <c r="RL3" s="11"/>
+      <c r="RM3" s="11"/>
+      <c r="RN3" s="11"/>
+      <c r="RO3" s="11"/>
+      <c r="RP3" s="11"/>
+      <c r="RQ3" s="11"/>
+      <c r="RR3" s="11"/>
+      <c r="RS3" s="11"/>
+      <c r="RT3" s="11"/>
+      <c r="RU3" s="11"/>
+    </row>
+    <row r="4" spans="1:489" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -555,80 +1237,89 @@
       <c r="D4">
         <v>1234560001</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="3">
         <f ca="1">RANDBETWEEN(250,350)/10</f>
-        <v>33.4</v>
+        <v>31.4</v>
       </c>
       <c r="I4" s="3">
         <f ca="1">RANDBETWEEN(300,410)</f>
-        <v>338</v>
-      </c>
-      <c r="J4" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
       <c r="P4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:489" x14ac:dyDescent="0.25">
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:489" x14ac:dyDescent="0.25">
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:489" x14ac:dyDescent="0.25">
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:489" x14ac:dyDescent="0.25">
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:489" x14ac:dyDescent="0.25">
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:489" x14ac:dyDescent="0.25">
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:489" x14ac:dyDescent="0.25">
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:489" x14ac:dyDescent="0.25">
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:489" x14ac:dyDescent="0.25">
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:489" x14ac:dyDescent="0.25">
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:489" x14ac:dyDescent="0.25">
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:489" x14ac:dyDescent="0.25">
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -953,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/bio_diversity/static/test/parser_test_files/test-generic-indv.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-generic-indv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\test\parser_test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5D6567-87C2-4703-A78C-5DE6B006CE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1B816F-C0E0-4CCA-9D68-753BCBD27C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1242,11 +1242,11 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">RANDBETWEEN(250,350)/10</f>
-        <v>31.4</v>
+        <v>33.6</v>
       </c>
       <c r="I4" s="3">
         <f ca="1">RANDBETWEEN(300,410)</f>
-        <v>309</v>
+        <v>364</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>23</v>
